--- a/Code/Results/Cases/Case_7_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.92160230890737</v>
+        <v>26.92160230890738</v>
       </c>
       <c r="C2">
-        <v>15.19815020508872</v>
+        <v>15.19815020508855</v>
       </c>
       <c r="D2">
-        <v>2.927468452799125</v>
+        <v>2.92746845279914</v>
       </c>
       <c r="E2">
-        <v>5.858603092139067</v>
+        <v>5.858603092138998</v>
       </c>
       <c r="F2">
-        <v>45.09722248022489</v>
+        <v>45.09722248022509</v>
       </c>
       <c r="G2">
-        <v>2.143452528291897</v>
+        <v>2.143452528292159</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.858074514470489</v>
+        <v>5.858074514470388</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.761563970510282</v>
+        <v>6.761563970510301</v>
       </c>
       <c r="M2">
-        <v>15.83215187173524</v>
+        <v>15.83215187173531</v>
       </c>
       <c r="N2">
-        <v>16.20906051801517</v>
+        <v>16.20906051801523</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.47234346633109</v>
+        <v>25.47234346633113</v>
       </c>
       <c r="C3">
-        <v>14.09695108206793</v>
+        <v>14.09695108206791</v>
       </c>
       <c r="D3">
-        <v>2.856191207235163</v>
+        <v>2.856191207235233</v>
       </c>
       <c r="E3">
-        <v>5.788893945404663</v>
+        <v>5.788893945404601</v>
       </c>
       <c r="F3">
-        <v>43.9211712330515</v>
+        <v>43.92117123305162</v>
       </c>
       <c r="G3">
-        <v>2.155903067240263</v>
+        <v>2.155903067240124</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.890441599852143</v>
+        <v>5.890441599852242</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.705880690232909</v>
+        <v>6.7058806902329</v>
       </c>
       <c r="M3">
-        <v>15.30336503371304</v>
+        <v>15.30336503371308</v>
       </c>
       <c r="N3">
-        <v>16.41040889525226</v>
+        <v>16.41040889525232</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56479449578105</v>
+        <v>24.56479449578094</v>
       </c>
       <c r="C4">
-        <v>13.38902538682147</v>
+        <v>13.38902538682163</v>
       </c>
       <c r="D4">
-        <v>2.81597652184468</v>
+        <v>2.815976521844636</v>
       </c>
       <c r="E4">
         <v>5.746268629551077</v>
       </c>
       <c r="F4">
-        <v>43.22630151066829</v>
+        <v>43.22630151066791</v>
       </c>
       <c r="G4">
-        <v>2.16371360798968</v>
+        <v>2.163713607989282</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.910762669453608</v>
+        <v>5.910762669453541</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.675002223429854</v>
+        <v>6.675002223429698</v>
       </c>
       <c r="M4">
-        <v>14.98215753152828</v>
+        <v>14.98215753152813</v>
       </c>
       <c r="N4">
-        <v>16.5385655584458</v>
+        <v>16.53856555844568</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.1908519242522</v>
+        <v>24.19085192425221</v>
       </c>
       <c r="C5">
-        <v>13.09242601571518</v>
+        <v>13.09242601571512</v>
       </c>
       <c r="D5">
-        <v>2.800433983207423</v>
+        <v>2.800433983207307</v>
       </c>
       <c r="E5">
-        <v>5.728920703715312</v>
+        <v>5.72892070371538</v>
       </c>
       <c r="F5">
-        <v>42.9499482438667</v>
+        <v>42.94994824386687</v>
       </c>
       <c r="G5">
-        <v>2.1669414728059</v>
+        <v>2.166941472805768</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.919162258402658</v>
+        <v>5.919162258402657</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.663233876843383</v>
+        <v>6.663233876843436</v>
       </c>
       <c r="M5">
-        <v>14.85224855308108</v>
+        <v>14.85224855308111</v>
       </c>
       <c r="N5">
-        <v>16.59191116368157</v>
+        <v>16.59191116368164</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.12852266351103</v>
+        <v>24.12852266351116</v>
       </c>
       <c r="C6">
-        <v>13.04268271220452</v>
+        <v>13.04268271220447</v>
       </c>
       <c r="D6">
-        <v>2.797902821767374</v>
+        <v>2.797902821767368</v>
       </c>
       <c r="E6">
-        <v>5.726040832247099</v>
+        <v>5.726040832247033</v>
       </c>
       <c r="F6">
-        <v>42.90447048928124</v>
+        <v>42.90447048928164</v>
       </c>
       <c r="G6">
-        <v>2.167480266922822</v>
+        <v>2.167480266922959</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.920564334931689</v>
+        <v>5.92056433493162</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.66132845374508</v>
+        <v>6.661328453745069</v>
       </c>
       <c r="M6">
-        <v>14.8307403724976</v>
+        <v>14.83074037249771</v>
       </c>
       <c r="N6">
-        <v>16.60083640136176</v>
+        <v>16.60083640136187</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.55976749339159</v>
+        <v>24.55976749339155</v>
       </c>
       <c r="C7">
-        <v>13.38505834231923</v>
+        <v>13.38505834231924</v>
       </c>
       <c r="D7">
-        <v>2.815763549885019</v>
+        <v>2.815763549885111</v>
       </c>
       <c r="E7">
-        <v>5.746034606942467</v>
+        <v>5.746034606942334</v>
       </c>
       <c r="F7">
-        <v>43.22254697492058</v>
+        <v>43.22254697492043</v>
       </c>
       <c r="G7">
-        <v>2.163756953708088</v>
+        <v>2.163756953708219</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.910875461398994</v>
+        <v>5.910875461398992</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.674840235244864</v>
+        <v>6.674840235244766</v>
       </c>
       <c r="M7">
-        <v>14.98040138278658</v>
+        <v>14.98040138278652</v>
       </c>
       <c r="N7">
-        <v>16.53928047888436</v>
+        <v>16.5392804788843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.42574700692372</v>
+        <v>26.42574700692373</v>
       </c>
       <c r="C8">
-        <v>14.82497414266372</v>
+        <v>14.82497414266379</v>
       </c>
       <c r="D8">
-        <v>2.902126727903947</v>
+        <v>2.902126727903939</v>
       </c>
       <c r="E8">
-        <v>5.834516714682833</v>
+        <v>5.834516714682769</v>
       </c>
       <c r="F8">
-        <v>44.68604313952449</v>
+        <v>44.68604313952444</v>
       </c>
       <c r="G8">
-        <v>2.147713125252621</v>
+        <v>2.14771312525275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.869145580357553</v>
+        <v>5.869145580357485</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.741666281007522</v>
+        <v>6.741666281007549</v>
       </c>
       <c r="M8">
-        <v>15.64916909326342</v>
+        <v>15.6491690932634</v>
       </c>
       <c r="N8">
-        <v>16.27753364715293</v>
+        <v>16.27753364715291</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.93437531980562</v>
+        <v>29.93437531980561</v>
       </c>
       <c r="C9">
-        <v>17.40304507889004</v>
+        <v>17.40304507889013</v>
       </c>
       <c r="D9">
-        <v>3.282102817833806</v>
+        <v>3.282102817833874</v>
       </c>
       <c r="E9">
-        <v>6.010567258942118</v>
+        <v>6.010567258942117</v>
       </c>
       <c r="F9">
-        <v>47.77475391197975</v>
+        <v>47.77475391197969</v>
       </c>
       <c r="G9">
-        <v>2.117402024713926</v>
+        <v>2.117402024713788</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.790565535825295</v>
+        <v>5.790565535825262</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.89982485989377</v>
+        <v>6.899824859893757</v>
       </c>
       <c r="M9">
-        <v>16.98413766292738</v>
+        <v>16.98413766292734</v>
       </c>
       <c r="N9">
         <v>15.80121694621142</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41364091612402</v>
+        <v>32.41364091612397</v>
       </c>
       <c r="C10">
-        <v>19.15831322429986</v>
+        <v>19.15831322429974</v>
       </c>
       <c r="D10">
-        <v>3.621928349453746</v>
+        <v>3.621928349453733</v>
       </c>
       <c r="E10">
-        <v>6.143299509041086</v>
+        <v>6.143299509041024</v>
       </c>
       <c r="F10">
-        <v>50.18418082843593</v>
+        <v>50.18418082843592</v>
       </c>
       <c r="G10">
-        <v>2.095574753919952</v>
+        <v>2.09557475392036</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.734354328499873</v>
+        <v>5.734354328499839</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.033819978767742</v>
+        <v>7.033819978767752</v>
       </c>
       <c r="M10">
-        <v>17.97567703303159</v>
+        <v>17.97567703303158</v>
       </c>
       <c r="N10">
-        <v>15.47570957290865</v>
+        <v>15.47570957290864</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52059289927594</v>
+        <v>33.52059289927595</v>
       </c>
       <c r="C11">
-        <v>19.92960458414105</v>
+        <v>19.92960458414112</v>
       </c>
       <c r="D11">
-        <v>3.773951794939286</v>
+        <v>3.773951794939465</v>
       </c>
       <c r="E11">
-        <v>6.204915306495629</v>
+        <v>6.204915306495699</v>
       </c>
       <c r="F11">
-        <v>51.31336281118067</v>
+        <v>51.31336281118071</v>
       </c>
       <c r="G11">
-        <v>2.085673655853697</v>
+        <v>2.085673655853705</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.708996364230883</v>
+        <v>5.708996364230786</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.098961910529843</v>
+        <v>7.098961910529805</v>
       </c>
       <c r="M11">
-        <v>18.42891848547265</v>
+        <v>18.42891848547262</v>
       </c>
       <c r="N11">
-        <v>15.33353150845013</v>
+        <v>15.3335315084502</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.93692268910437</v>
+        <v>33.93692268910439</v>
       </c>
       <c r="C12">
-        <v>20.21804891791738</v>
+        <v>20.21804891791749</v>
       </c>
       <c r="D12">
-        <v>3.831243275566554</v>
+        <v>3.83124327556661</v>
       </c>
       <c r="E12">
-        <v>6.228474943221203</v>
+        <v>6.22847494322127</v>
       </c>
       <c r="F12">
-        <v>51.74604120609762</v>
+        <v>51.7460412060975</v>
       </c>
       <c r="G12">
-        <v>2.081921888878015</v>
+        <v>2.08192188887815</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.699413581267238</v>
+        <v>5.699413581267239</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.124262373872803</v>
+        <v>7.124262373872781</v>
       </c>
       <c r="M12">
-        <v>18.60089464983862</v>
+        <v>18.60089464983859</v>
       </c>
       <c r="N12">
-        <v>15.28060710797828</v>
+        <v>15.28060710797821</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.8473818596391</v>
+        <v>33.84738185963908</v>
       </c>
       <c r="C13">
         <v>20.15608362533808</v>
       </c>
       <c r="D13">
-        <v>3.818915204453076</v>
+        <v>3.818915204453153</v>
       </c>
       <c r="E13">
-        <v>6.223389977786482</v>
+        <v>6.223389977786615</v>
       </c>
       <c r="F13">
-        <v>51.6526239440026</v>
+        <v>51.65262394400264</v>
       </c>
       <c r="G13">
-        <v>2.082730120867427</v>
+        <v>2.082730120867822</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.701476715021701</v>
+        <v>5.701476715021768</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.118784790823018</v>
+        <v>7.118784790823034</v>
       </c>
       <c r="M13">
-        <v>18.56384033412685</v>
+        <v>18.56384033412687</v>
       </c>
       <c r="N13">
-        <v>15.29196337111177</v>
+        <v>15.29196337111188</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55490047857308</v>
+        <v>33.55490047857303</v>
       </c>
       <c r="C14">
-        <v>19.95340599353049</v>
+        <v>19.95340599353041</v>
       </c>
       <c r="D14">
-        <v>3.778670161533526</v>
+        <v>3.778670161533546</v>
       </c>
       <c r="E14">
         <v>6.206848708239648</v>
       </c>
       <c r="F14">
-        <v>51.34885547453729</v>
+        <v>51.34885547453734</v>
       </c>
       <c r="G14">
-        <v>2.085365085086808</v>
+        <v>2.085365085086937</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.708207654533429</v>
+        <v>5.708207654533461</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.101030523640844</v>
+        <v>7.101030523640901</v>
       </c>
       <c r="M14">
-        <v>18.44305987410307</v>
+        <v>18.44305987410311</v>
       </c>
       <c r="N14">
-        <v>15.32915859897982</v>
+        <v>15.32915859897994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37538235914982</v>
+        <v>33.37538235914986</v>
       </c>
       <c r="C15">
-        <v>19.82879685844165</v>
+        <v>19.82879685844163</v>
       </c>
       <c r="D15">
-        <v>3.753985883243064</v>
+        <v>3.753985883242962</v>
       </c>
       <c r="E15">
-        <v>6.196747882960766</v>
+        <v>6.196747882960761</v>
       </c>
       <c r="F15">
-        <v>51.16346155950182</v>
+        <v>51.16346155950185</v>
       </c>
       <c r="G15">
-        <v>2.086978550883276</v>
+        <v>2.086978550882878</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.712332773320686</v>
+        <v>5.712332773320789</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.090238898560402</v>
+        <v>7.090238898560426</v>
       </c>
       <c r="M15">
         <v>18.36912463355188</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34088982509332</v>
+        <v>32.34088982509336</v>
       </c>
       <c r="C16">
-        <v>19.1073836529168</v>
+        <v>19.10738365291684</v>
       </c>
       <c r="D16">
-        <v>3.611949227116152</v>
+        <v>3.611949227116297</v>
       </c>
       <c r="E16">
-        <v>6.139301671670853</v>
+        <v>6.139301671670857</v>
       </c>
       <c r="F16">
-        <v>50.11107754824942</v>
+        <v>50.11107754824943</v>
       </c>
       <c r="G16">
-        <v>2.096221847388866</v>
+        <v>2.096221847389005</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.73601491303072</v>
+        <v>5.736014913030616</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.029649557197241</v>
+        <v>7.02964955719724</v>
       </c>
       <c r="M16">
         <v>17.9461022140313</v>
       </c>
       <c r="N16">
-        <v>15.48512531722696</v>
+        <v>15.48512531722693</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.70099402607377</v>
+        <v>31.70099402607385</v>
       </c>
       <c r="C17">
-        <v>18.65804484937017</v>
+        <v>18.65804484937026</v>
       </c>
       <c r="D17">
-        <v>3.524218851240533</v>
+        <v>3.524218851240715</v>
       </c>
       <c r="E17">
-        <v>6.104409357343575</v>
+        <v>6.104409357343776</v>
       </c>
       <c r="F17">
         <v>49.47415261668318</v>
       </c>
       <c r="G17">
-        <v>2.101895199169095</v>
+        <v>2.101895199169487</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.750590303668615</v>
+        <v>5.750590303668617</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.993572634435258</v>
+        <v>6.993572634435254</v>
       </c>
       <c r="M17">
-        <v>17.68715990356775</v>
+        <v>17.68715990356772</v>
       </c>
       <c r="N17">
-        <v>15.56830818182581</v>
+        <v>15.56830818182577</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.33096275457256</v>
+        <v>31.33096275457257</v>
       </c>
       <c r="C18">
-        <v>18.39701870570969</v>
+        <v>18.39701870570972</v>
       </c>
       <c r="D18">
-        <v>3.4735109541134</v>
+        <v>3.473510954113462</v>
       </c>
       <c r="E18">
-        <v>6.084453089617141</v>
+        <v>6.084453089617207</v>
       </c>
       <c r="F18">
-        <v>49.11090316434284</v>
+        <v>49.1109031643429</v>
       </c>
       <c r="G18">
-        <v>2.105161457191404</v>
+        <v>2.105161457191281</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.973214159663662</v>
+        <v>6.973214159663703</v>
       </c>
       <c r="M18">
-        <v>17.5384247922461</v>
+        <v>17.53842479224611</v>
       </c>
       <c r="N18">
-        <v>15.61670294640942</v>
+        <v>15.61670294640943</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>31.20533330125538</v>
       </c>
       <c r="C19">
-        <v>18.30818894461975</v>
+        <v>18.30818894461948</v>
       </c>
       <c r="D19">
-        <v>3.456296995443937</v>
+        <v>3.456296995443518</v>
       </c>
       <c r="E19">
-        <v>6.077714247836826</v>
+        <v>6.07771424783636</v>
       </c>
       <c r="F19">
-        <v>48.98843628069404</v>
+        <v>48.98843628069405</v>
       </c>
       <c r="G19">
-        <v>2.106268071241814</v>
+        <v>2.106268071241546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.761843803277015</v>
+        <v>5.761843803276949</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.966387602565305</v>
+        <v>6.966387602565279</v>
       </c>
       <c r="M19">
-        <v>17.48810001857474</v>
+        <v>17.48810001857473</v>
       </c>
       <c r="N19">
-        <v>15.633181267628</v>
+        <v>15.63318126762812</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>31.76931615209876</v>
       </c>
       <c r="C20">
-        <v>18.70614266277911</v>
+        <v>18.70614266277924</v>
       </c>
       <c r="D20">
-        <v>3.53358291105205</v>
+        <v>3.533582911051988</v>
       </c>
       <c r="E20">
-        <v>6.108111689735376</v>
+        <v>6.108111689735312</v>
       </c>
       <c r="F20">
-        <v>49.54163227414256</v>
+        <v>49.54163227414247</v>
       </c>
       <c r="G20">
-        <v>2.101290984930142</v>
+        <v>2.101290984930005</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.749036655404819</v>
+        <v>5.749036655404851</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.997372305719425</v>
+        <v>6.997372305719386</v>
       </c>
       <c r="M20">
-        <v>17.71470379719591</v>
+        <v>17.7147037971959</v>
       </c>
       <c r="N20">
-        <v>15.55939584271979</v>
+        <v>15.55939584271975</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64088497080608</v>
+        <v>33.64088497080603</v>
       </c>
       <c r="C21">
-        <v>20.01303329949294</v>
+        <v>20.01303329949284</v>
       </c>
       <c r="D21">
-        <v>3.790497803916479</v>
+        <v>3.790497803916308</v>
       </c>
       <c r="E21">
-        <v>6.211700681974175</v>
+        <v>6.211700681974103</v>
       </c>
       <c r="F21">
-        <v>51.43793865418691</v>
+        <v>51.43793865418687</v>
       </c>
       <c r="G21">
-        <v>2.084591254750257</v>
+        <v>2.084591254749994</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.706230172265896</v>
+        <v>5.706230172265927</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.106227945153313</v>
+        <v>7.106227945153353</v>
       </c>
       <c r="M21">
-        <v>18.47852626914481</v>
+        <v>18.47852626914483</v>
       </c>
       <c r="N21">
-        <v>15.31820800113147</v>
+        <v>15.31820800113154</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.84759835982143</v>
+        <v>34.84759835982145</v>
       </c>
       <c r="C22">
-        <v>20.84618399220876</v>
+        <v>20.84618399220898</v>
       </c>
       <c r="D22">
-        <v>3.956848468105997</v>
+        <v>3.956848468106222</v>
       </c>
       <c r="E22">
-        <v>6.280754898230103</v>
+        <v>6.280754898230231</v>
       </c>
       <c r="F22">
-        <v>52.70713297225057</v>
+        <v>52.70713297225056</v>
       </c>
       <c r="G22">
-        <v>2.073659094774214</v>
+        <v>2.073659094774346</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.678362606931844</v>
+        <v>5.678362606931745</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.181076788583278</v>
+        <v>7.181076788583265</v>
       </c>
       <c r="M22">
-        <v>18.97977365882652</v>
+        <v>18.9797736588265</v>
       </c>
       <c r="N22">
         <v>15.1659564461572</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.20498341020941</v>
+        <v>34.20498341020931</v>
       </c>
       <c r="C23">
-        <v>20.40333052225507</v>
+        <v>20.40333052225502</v>
       </c>
       <c r="D23">
-        <v>3.868172210895922</v>
+        <v>3.868172210895968</v>
       </c>
       <c r="E23">
-        <v>6.243756985857477</v>
+        <v>6.243756985857807</v>
       </c>
       <c r="F23">
-        <v>52.02687487570044</v>
+        <v>52.02687487570036</v>
       </c>
       <c r="G23">
-        <v>2.079497833019113</v>
+        <v>2.079497833019375</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.693230031526298</v>
+        <v>5.693230031526463</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.140778075023713</v>
+        <v>7.140778075023846</v>
       </c>
       <c r="M23">
-        <v>18.71204100002893</v>
+        <v>18.71204100002896</v>
       </c>
       <c r="N23">
-        <v>15.24669726942597</v>
+        <v>15.24669726942615</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.73843441563693</v>
+        <v>31.7384344156369</v>
       </c>
       <c r="C24">
-        <v>18.68440605731307</v>
+        <v>18.68440605731314</v>
       </c>
       <c r="D24">
-        <v>3.529350269041113</v>
+        <v>3.529350269041094</v>
       </c>
       <c r="E24">
-        <v>6.106437545594028</v>
+        <v>6.106437545594223</v>
       </c>
       <c r="F24">
-        <v>49.51111562616616</v>
+        <v>49.51111562616604</v>
       </c>
       <c r="G24">
-        <v>2.101564135467584</v>
+        <v>2.101564135467329</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.749738982529857</v>
+        <v>5.749738982529959</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.995653284772087</v>
+        <v>6.995653284772139</v>
       </c>
       <c r="M24">
         <v>17.70225078632843</v>
       </c>
       <c r="N24">
-        <v>15.56342333502675</v>
+        <v>15.56342333502668</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.00235410819199</v>
+        <v>29.00235410819202</v>
       </c>
       <c r="C25">
-        <v>16.73087476930286</v>
+        <v>16.73087476930291</v>
       </c>
       <c r="D25">
-        <v>3.154141906402091</v>
+        <v>3.154141906402148</v>
       </c>
       <c r="E25">
-        <v>5.962494971291778</v>
+        <v>5.962494971291647</v>
       </c>
       <c r="F25">
-        <v>46.91522170437552</v>
+        <v>46.91522170437567</v>
       </c>
       <c r="G25">
-        <v>2.125503709714828</v>
+        <v>2.125503709714831</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.811520183806469</v>
+        <v>5.811520183806334</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.854011799760321</v>
+        <v>6.854011799760223</v>
       </c>
       <c r="M25">
-        <v>16.6209440739254</v>
+        <v>16.62094407392539</v>
       </c>
       <c r="N25">
-        <v>15.92594782201543</v>
+        <v>15.92594782201552</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.92160230890738</v>
+        <v>20.51920874312732</v>
       </c>
       <c r="C2">
-        <v>15.19815020508855</v>
+        <v>12.7570016897404</v>
       </c>
       <c r="D2">
-        <v>2.92746845279914</v>
+        <v>3.929036804421928</v>
       </c>
       <c r="E2">
-        <v>5.858603092138998</v>
+        <v>7.12268736188912</v>
       </c>
       <c r="F2">
-        <v>45.09722248022509</v>
+        <v>28.02053607145247</v>
       </c>
       <c r="G2">
-        <v>2.143452528292159</v>
+        <v>36.95532572936933</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.606458640322451</v>
       </c>
       <c r="J2">
-        <v>5.858074514470388</v>
+        <v>12.03924323827249</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.36023968957748</v>
       </c>
       <c r="L2">
-        <v>6.761563970510301</v>
+        <v>5.977400947465384</v>
       </c>
       <c r="M2">
-        <v>15.83215187173531</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.20906051801523</v>
+        <v>7.204096299222017</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.13202729732102</v>
+      </c>
+      <c r="P2">
+        <v>13.04329560147127</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.47234346633113</v>
+        <v>19.23483382071073</v>
       </c>
       <c r="C3">
-        <v>14.09695108206791</v>
+        <v>11.9446912962906</v>
       </c>
       <c r="D3">
-        <v>2.856191207235233</v>
+        <v>3.86002257336511</v>
       </c>
       <c r="E3">
-        <v>5.788893945404601</v>
+        <v>7.011700156515042</v>
       </c>
       <c r="F3">
-        <v>43.92117123305162</v>
+        <v>27.40247105978834</v>
       </c>
       <c r="G3">
-        <v>2.155903067240124</v>
+        <v>35.81755889827693</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.880283232706449</v>
       </c>
       <c r="J3">
-        <v>5.890441599852242</v>
+        <v>11.92503808564169</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.28076063072904</v>
       </c>
       <c r="L3">
-        <v>6.7058806902329</v>
+        <v>5.918310284736517</v>
       </c>
       <c r="M3">
-        <v>15.30336503371308</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.41040889525232</v>
+        <v>7.016415963195207</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.55680781659573</v>
+      </c>
+      <c r="P3">
+        <v>13.22059656658346</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56479449578094</v>
+        <v>18.40509732547375</v>
       </c>
       <c r="C4">
-        <v>13.38902538682163</v>
+        <v>11.41811477637006</v>
       </c>
       <c r="D4">
-        <v>2.815976521844636</v>
+        <v>3.817085593058818</v>
       </c>
       <c r="E4">
-        <v>5.746268629551077</v>
+        <v>6.941762937271625</v>
       </c>
       <c r="F4">
-        <v>43.22630151066791</v>
+        <v>27.03203169394902</v>
       </c>
       <c r="G4">
-        <v>2.163713607989282</v>
+        <v>35.12695948592947</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.053878138687769</v>
       </c>
       <c r="J4">
-        <v>5.910762669453541</v>
+        <v>11.86064599921007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.24213537089441</v>
       </c>
       <c r="L4">
-        <v>6.675002223429698</v>
+        <v>5.880836674418849</v>
       </c>
       <c r="M4">
-        <v>14.98215753152813</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.53856555844568</v>
+        <v>6.898605504607408</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.19208570624922</v>
+      </c>
+      <c r="P4">
+        <v>13.33152712352171</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.19085192425221</v>
+        <v>18.05675310851132</v>
       </c>
       <c r="C5">
-        <v>13.09242601571512</v>
+        <v>11.19652791599458</v>
       </c>
       <c r="D5">
-        <v>2.800433983207307</v>
+        <v>3.799444750101252</v>
       </c>
       <c r="E5">
-        <v>5.72892070371538</v>
+        <v>6.912795438077534</v>
       </c>
       <c r="F5">
-        <v>42.94994824386687</v>
+        <v>26.88346145888729</v>
       </c>
       <c r="G5">
-        <v>2.166941472805768</v>
+        <v>34.84785710888881</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.126022848876857</v>
       </c>
       <c r="J5">
-        <v>5.919162258402657</v>
+        <v>11.83582353840685</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.22887339917974</v>
       </c>
       <c r="L5">
-        <v>6.663233876843436</v>
+        <v>5.865258715127357</v>
       </c>
       <c r="M5">
-        <v>14.85224855308111</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.59191116368164</v>
+        <v>6.84998700119053</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.04072944049677</v>
+      </c>
+      <c r="P5">
+        <v>13.37727106628211</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.12852266351116</v>
+        <v>17.99829791210069</v>
       </c>
       <c r="C6">
-        <v>13.04268271220447</v>
+        <v>11.1593105925403</v>
       </c>
       <c r="D6">
-        <v>2.797902821767368</v>
+        <v>3.79650676782117</v>
       </c>
       <c r="E6">
-        <v>5.726040832247033</v>
+        <v>6.907956681910181</v>
       </c>
       <c r="F6">
-        <v>42.90447048928164</v>
+        <v>26.85893878080222</v>
       </c>
       <c r="G6">
-        <v>2.167480266922959</v>
+        <v>34.80166196603858</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.138088009999267</v>
       </c>
       <c r="J6">
-        <v>5.92056433493162</v>
+        <v>11.83178670072624</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.22681854729256</v>
       </c>
       <c r="L6">
-        <v>6.661328453745069</v>
+        <v>5.862653242886861</v>
       </c>
       <c r="M6">
-        <v>14.83074037249771</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.60083640136187</v>
+        <v>6.841878257653905</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.0154375265041</v>
+      </c>
+      <c r="P6">
+        <v>13.38489989994214</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.55976749339155</v>
+        <v>18.4004406235532</v>
       </c>
       <c r="C7">
-        <v>13.38505834231924</v>
+        <v>11.41515473609035</v>
       </c>
       <c r="D7">
-        <v>2.815763549885111</v>
+        <v>3.816848266852218</v>
       </c>
       <c r="E7">
-        <v>5.746034606942334</v>
+        <v>6.941374186600685</v>
       </c>
       <c r="F7">
-        <v>43.22254697492043</v>
+        <v>27.03001821706076</v>
       </c>
       <c r="G7">
-        <v>2.163756953708219</v>
+        <v>35.1231855896141</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.054845387684203</v>
       </c>
       <c r="J7">
-        <v>5.910875461398992</v>
+        <v>11.86030552626242</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.24194658894841</v>
       </c>
       <c r="L7">
-        <v>6.674840235244766</v>
+        <v>5.880627837945495</v>
       </c>
       <c r="M7">
-        <v>14.98040138278652</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.5392804788843</v>
+        <v>6.897952235848098</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.19005526745301</v>
+      </c>
+      <c r="P7">
+        <v>13.33214183594322</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.42574700692373</v>
+        <v>20.08495264762744</v>
       </c>
       <c r="C8">
-        <v>14.82497414266379</v>
+        <v>12.48268189865636</v>
       </c>
       <c r="D8">
-        <v>2.902126727903939</v>
+        <v>3.905355671727231</v>
       </c>
       <c r="E8">
-        <v>5.834516714682769</v>
+        <v>7.084779953571857</v>
       </c>
       <c r="F8">
-        <v>44.68604313952444</v>
+        <v>27.80561451088772</v>
       </c>
       <c r="G8">
-        <v>2.14771312525275</v>
+        <v>36.56154802965003</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.699756881232085</v>
       </c>
       <c r="J8">
-        <v>5.869145580357485</v>
+        <v>11.99866274181299</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.33067551161998</v>
       </c>
       <c r="L8">
-        <v>6.741666281007549</v>
+        <v>5.957269192072692</v>
       </c>
       <c r="M8">
-        <v>15.6491690932634</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.27753364715291</v>
+        <v>7.139939893653501</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.93618097715565</v>
+      </c>
+      <c r="P8">
+        <v>13.10401171715639</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.93437531980561</v>
+        <v>23.05848718475919</v>
       </c>
       <c r="C9">
-        <v>17.40304507889013</v>
+        <v>14.3562742722861</v>
       </c>
       <c r="D9">
-        <v>3.282102817833874</v>
+        <v>4.074613529971268</v>
       </c>
       <c r="E9">
-        <v>6.010567258942117</v>
+        <v>7.352618402685835</v>
       </c>
       <c r="F9">
-        <v>47.77475391197969</v>
+        <v>29.39355918476094</v>
       </c>
       <c r="G9">
-        <v>2.117402024713788</v>
+        <v>39.43272021092292</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.045412124559388</v>
       </c>
       <c r="J9">
-        <v>5.790565535825262</v>
+        <v>12.31638583567436</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.58893009577059</v>
       </c>
       <c r="L9">
-        <v>6.899824859893757</v>
+        <v>6.098466706137958</v>
       </c>
       <c r="M9">
-        <v>16.98413766292734</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.80121694621142</v>
+        <v>7.592568713207237</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.30150124197884</v>
+      </c>
+      <c r="P9">
+        <v>12.6721373704321</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41364091612397</v>
+        <v>25.00780260956583</v>
       </c>
       <c r="C10">
-        <v>19.15831322429974</v>
+        <v>15.6057616552552</v>
       </c>
       <c r="D10">
-        <v>3.621928349453733</v>
+        <v>4.185886075269315</v>
       </c>
       <c r="E10">
-        <v>6.143299509041024</v>
+        <v>7.532303661116798</v>
       </c>
       <c r="F10">
-        <v>50.18418082843592</v>
+        <v>30.42789953417513</v>
       </c>
       <c r="G10">
-        <v>2.09557475392036</v>
+        <v>41.30995209815315</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.62225822750403</v>
       </c>
       <c r="J10">
-        <v>5.734354328499839</v>
+        <v>12.52944837606304</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.74257367308184</v>
       </c>
       <c r="L10">
-        <v>7.033819978767752</v>
+        <v>6.198200576659799</v>
       </c>
       <c r="M10">
-        <v>17.97567703303158</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.47570957290864</v>
+        <v>7.844707201562305</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.16667124732238</v>
+      </c>
+      <c r="P10">
+        <v>12.36481094785923</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52059289927595</v>
+        <v>25.41351944644438</v>
       </c>
       <c r="C11">
-        <v>19.92960458414112</v>
+        <v>16.19090212058392</v>
       </c>
       <c r="D11">
-        <v>3.773951794939465</v>
+        <v>4.147100072944622</v>
       </c>
       <c r="E11">
-        <v>6.204915306495699</v>
+        <v>7.594172253803552</v>
       </c>
       <c r="F11">
-        <v>51.31336281118071</v>
+        <v>29.4577782656131</v>
       </c>
       <c r="G11">
-        <v>2.085673655853705</v>
+        <v>40.02549191371921</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.652834733256942</v>
       </c>
       <c r="J11">
-        <v>5.708996364230786</v>
+        <v>12.19874693644601</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.02524163353945</v>
       </c>
       <c r="L11">
-        <v>7.098961910529805</v>
+        <v>6.288443532744246</v>
       </c>
       <c r="M11">
-        <v>18.42891848547262</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.3335315084502</v>
+        <v>7.406081175105562</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.92837114149069</v>
+      </c>
+      <c r="P11">
+        <v>12.26246746885648</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.93692268910439</v>
+        <v>25.3396211797554</v>
       </c>
       <c r="C12">
-        <v>20.21804891791749</v>
+        <v>16.43129350413992</v>
       </c>
       <c r="D12">
-        <v>3.83124327556661</v>
+        <v>4.095545776691857</v>
       </c>
       <c r="E12">
-        <v>6.22847494322127</v>
+        <v>7.700550196094122</v>
       </c>
       <c r="F12">
-        <v>51.7460412060975</v>
+        <v>28.39455390824443</v>
       </c>
       <c r="G12">
-        <v>2.08192188887815</v>
+        <v>38.5079665210693</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.073566665638173</v>
       </c>
       <c r="J12">
-        <v>5.699413581267239</v>
+        <v>11.86519492556062</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.37611814894708</v>
       </c>
       <c r="L12">
-        <v>7.124262373872781</v>
+        <v>6.392171201393994</v>
       </c>
       <c r="M12">
-        <v>18.60089464983859</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.28060710797821</v>
+        <v>6.999743405560727</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.5383997100162</v>
+      </c>
+      <c r="P12">
+        <v>12.26461955491322</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.84738185963908</v>
+        <v>24.88993364549022</v>
       </c>
       <c r="C13">
-        <v>20.15608362533808</v>
+        <v>16.42855574614363</v>
       </c>
       <c r="D13">
-        <v>3.818915204453153</v>
+        <v>4.030319589782302</v>
       </c>
       <c r="E13">
-        <v>6.223389977786615</v>
+        <v>7.84104640406858</v>
       </c>
       <c r="F13">
-        <v>51.65262394400264</v>
+        <v>27.17621519217871</v>
       </c>
       <c r="G13">
-        <v>2.082730120867822</v>
+        <v>36.67938555765025</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.525048575673813</v>
       </c>
       <c r="J13">
-        <v>5.701476715021768</v>
+        <v>11.505886716123</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.73809397889573</v>
       </c>
       <c r="L13">
-        <v>7.118784790823034</v>
+        <v>6.508140820451365</v>
       </c>
       <c r="M13">
-        <v>18.56384033412687</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.29196337111188</v>
+        <v>6.593546558666915</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.99884540451268</v>
+      </c>
+      <c r="P13">
+        <v>12.34219951867709</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55490047857303</v>
+        <v>24.39852203034479</v>
       </c>
       <c r="C14">
-        <v>19.95340599353041</v>
+        <v>16.31699704286485</v>
       </c>
       <c r="D14">
-        <v>3.778670161533546</v>
+        <v>3.979118054444369</v>
       </c>
       <c r="E14">
-        <v>6.206848708239648</v>
+        <v>7.963051382072027</v>
       </c>
       <c r="F14">
-        <v>51.34885547453734</v>
+        <v>26.24776940742903</v>
       </c>
       <c r="G14">
-        <v>2.085365085086937</v>
+        <v>35.24303138323111</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.549698458571729</v>
       </c>
       <c r="J14">
-        <v>5.708207654533461</v>
+        <v>11.24280843701935</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.30001768433418</v>
       </c>
       <c r="L14">
-        <v>7.101030523640901</v>
+        <v>6.598678523575184</v>
       </c>
       <c r="M14">
-        <v>18.44305987410311</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.32915859897994</v>
+        <v>6.314762406862511</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.5475604582221</v>
+      </c>
+      <c r="P14">
+        <v>12.4309443862565</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37538235914986</v>
+        <v>24.19661038198807</v>
       </c>
       <c r="C15">
-        <v>19.82879685844163</v>
+        <v>16.23735027279336</v>
       </c>
       <c r="D15">
-        <v>3.753985883242962</v>
+        <v>3.963115127709539</v>
       </c>
       <c r="E15">
-        <v>6.196747882960761</v>
+        <v>7.987728480894092</v>
       </c>
       <c r="F15">
-        <v>51.16346155950185</v>
+        <v>25.99147416562109</v>
       </c>
       <c r="G15">
-        <v>2.086978550882878</v>
+        <v>34.82900117541497</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.789042447789305</v>
       </c>
       <c r="J15">
-        <v>5.712332773320789</v>
+        <v>11.17470311337853</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.19814642855765</v>
       </c>
       <c r="L15">
-        <v>7.090238898560426</v>
+        <v>6.616756181746121</v>
       </c>
       <c r="M15">
-        <v>18.36912463355188</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.35206322267127</v>
+        <v>6.244906116795661</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.40568080413634</v>
+      </c>
+      <c r="P15">
+        <v>12.464695607706</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34088982509336</v>
+        <v>23.42360032106295</v>
       </c>
       <c r="C16">
-        <v>19.10738365291684</v>
+        <v>15.72842625133013</v>
       </c>
       <c r="D16">
-        <v>3.611949227116297</v>
+        <v>3.927114651173194</v>
       </c>
       <c r="E16">
-        <v>6.139301671670857</v>
+        <v>7.877998070787866</v>
       </c>
       <c r="F16">
-        <v>50.11107754824943</v>
+        <v>25.75379789137065</v>
       </c>
       <c r="G16">
-        <v>2.096221847389005</v>
+        <v>34.30428246117185</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.60278741980204</v>
       </c>
       <c r="J16">
-        <v>5.736014913030616</v>
+        <v>11.14915312752295</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.25745852721092</v>
       </c>
       <c r="L16">
-        <v>7.02964955719724</v>
+        <v>6.546313787919206</v>
       </c>
       <c r="M16">
-        <v>17.9461022140313</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.48512531722693</v>
+        <v>6.21214139925685</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.12495803609861</v>
+      </c>
+      <c r="P16">
+        <v>12.5669501876006</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.70099402607385</v>
+        <v>23.1127537861266</v>
       </c>
       <c r="C17">
-        <v>18.65804484937026</v>
+        <v>15.39145949132069</v>
       </c>
       <c r="D17">
-        <v>3.524218851240715</v>
+        <v>3.926598152024654</v>
       </c>
       <c r="E17">
-        <v>6.104409357343776</v>
+        <v>7.721036246740955</v>
       </c>
       <c r="F17">
-        <v>49.47415261668318</v>
+        <v>26.07787481014529</v>
       </c>
       <c r="G17">
-        <v>2.101895199169487</v>
+        <v>34.69364291985369</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.889166963335002</v>
       </c>
       <c r="J17">
-        <v>5.750590303668617</v>
+        <v>11.27171071601935</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.53627356677743</v>
       </c>
       <c r="L17">
-        <v>6.993572634435254</v>
+        <v>6.440552211030916</v>
       </c>
       <c r="M17">
-        <v>17.68715990356772</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>15.56830818182577</v>
+        <v>6.333199171793257</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.15644748824487</v>
+      </c>
+      <c r="P17">
+        <v>12.59984928786176</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.33096275457257</v>
+        <v>23.15023519940605</v>
       </c>
       <c r="C18">
-        <v>18.39701870570972</v>
+        <v>15.17121059700069</v>
       </c>
       <c r="D18">
-        <v>3.473510954113462</v>
+        <v>3.959350713878867</v>
       </c>
       <c r="E18">
-        <v>6.084453089617207</v>
+        <v>7.545700505405363</v>
       </c>
       <c r="F18">
-        <v>49.1109031643429</v>
+        <v>26.91303098567484</v>
       </c>
       <c r="G18">
-        <v>2.105161457191281</v>
+        <v>35.89958942649265</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.668355307441155</v>
       </c>
       <c r="J18">
-        <v>5.758994434370714</v>
+        <v>11.53204671248889</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.0338376394789</v>
       </c>
       <c r="L18">
-        <v>6.973214159663703</v>
+        <v>6.313246127686312</v>
       </c>
       <c r="M18">
-        <v>17.53842479224611</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.61670294640943</v>
+        <v>6.617227399648605</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.46018794533474</v>
+      </c>
+      <c r="P18">
+        <v>12.58710106947581</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.20533330125538</v>
+        <v>23.45769495040177</v>
       </c>
       <c r="C19">
-        <v>18.30818894461948</v>
+        <v>15.06501036312343</v>
       </c>
       <c r="D19">
-        <v>3.456296995443518</v>
+        <v>4.020465116393527</v>
       </c>
       <c r="E19">
-        <v>6.07771424783636</v>
+        <v>7.431609597790187</v>
       </c>
       <c r="F19">
-        <v>48.98843628069405</v>
+        <v>28.08759157089532</v>
       </c>
       <c r="G19">
-        <v>2.106268071241546</v>
+        <v>37.64957619548701</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.232067775899077</v>
       </c>
       <c r="J19">
-        <v>5.761843803276949</v>
+        <v>11.8821441280721</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.67506580859458</v>
       </c>
       <c r="L19">
-        <v>6.966387602565279</v>
+        <v>6.20989094409406</v>
       </c>
       <c r="M19">
-        <v>17.48810001857473</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.63318126762812</v>
+        <v>7.03233698637586</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.95348515489941</v>
+      </c>
+      <c r="P19">
+        <v>12.55206199690227</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.76931615209876</v>
+        <v>24.49073127487266</v>
       </c>
       <c r="C20">
-        <v>18.70614266277924</v>
+        <v>15.28680134873033</v>
       </c>
       <c r="D20">
-        <v>3.533582911051988</v>
+        <v>4.15629890224518</v>
       </c>
       <c r="E20">
-        <v>6.108111689735312</v>
+        <v>7.484880259695633</v>
       </c>
       <c r="F20">
-        <v>49.54163227414247</v>
+        <v>30.14630453129435</v>
       </c>
       <c r="G20">
-        <v>2.101290984930005</v>
+        <v>40.80432831092271</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.730834120723412</v>
       </c>
       <c r="J20">
-        <v>5.749036655404851</v>
+        <v>12.46924657814981</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.69421943751323</v>
       </c>
       <c r="L20">
-        <v>6.997372305719386</v>
+        <v>6.172238946946287</v>
       </c>
       <c r="M20">
-        <v>17.7147037971959</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15.55939584271975</v>
+        <v>7.776440802607222</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.94058430788016</v>
+      </c>
+      <c r="P20">
+        <v>12.44490333349349</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64088497080603</v>
+        <v>26.0546170439194</v>
       </c>
       <c r="C21">
-        <v>20.01303329949284</v>
+        <v>16.19628318977865</v>
       </c>
       <c r="D21">
-        <v>3.790497803916308</v>
+        <v>4.257733167277033</v>
       </c>
       <c r="E21">
-        <v>6.211700681974103</v>
+        <v>7.636904442074472</v>
       </c>
       <c r="F21">
-        <v>51.43793865418687</v>
+        <v>31.20821705541439</v>
       </c>
       <c r="G21">
-        <v>2.084591254749994</v>
+        <v>42.63030270412357</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.753560339376192</v>
       </c>
       <c r="J21">
-        <v>5.706230172265927</v>
+        <v>12.71952101260301</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.97384029136776</v>
       </c>
       <c r="L21">
-        <v>7.106227945153353</v>
+        <v>6.245919632583441</v>
       </c>
       <c r="M21">
-        <v>18.47852626914483</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.31820800113154</v>
+        <v>8.066098459615928</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.69300482756021</v>
+      </c>
+      <c r="P21">
+        <v>12.20853324251806</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.84759835982145</v>
+        <v>27.0084395815402</v>
       </c>
       <c r="C22">
-        <v>20.84618399220898</v>
+        <v>16.77007590703299</v>
       </c>
       <c r="D22">
-        <v>3.956848468106222</v>
+        <v>4.318216314833611</v>
       </c>
       <c r="E22">
-        <v>6.280754898230231</v>
+        <v>7.730091353151805</v>
       </c>
       <c r="F22">
-        <v>52.70713297225056</v>
+        <v>31.82130009612171</v>
       </c>
       <c r="G22">
-        <v>2.073659094774346</v>
+        <v>43.69567450424549</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.969420098164652</v>
       </c>
       <c r="J22">
-        <v>5.678362606931745</v>
+        <v>12.86326880519274</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.1210495014928</v>
       </c>
       <c r="L22">
-        <v>7.181076788583265</v>
+        <v>6.293771699510456</v>
       </c>
       <c r="M22">
-        <v>18.9797736588265</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.1659564461572</v>
+        <v>8.21873562052498</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.13454366683309</v>
+      </c>
+      <c r="P22">
+        <v>12.05590656900445</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.20498341020931</v>
+        <v>26.50312471110552</v>
       </c>
       <c r="C23">
-        <v>20.40333052225502</v>
+        <v>16.4659485347556</v>
       </c>
       <c r="D23">
-        <v>3.868172210895968</v>
+        <v>4.285959187801161</v>
       </c>
       <c r="E23">
-        <v>6.243756985857807</v>
+        <v>7.680424107941963</v>
       </c>
       <c r="F23">
-        <v>52.02687487570036</v>
+        <v>31.49367878629833</v>
       </c>
       <c r="G23">
-        <v>2.079497833019375</v>
+        <v>43.12717386747061</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.854520763629094</v>
       </c>
       <c r="J23">
-        <v>5.693230031526463</v>
+        <v>12.78602517029832</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.04140286426501</v>
       </c>
       <c r="L23">
-        <v>7.140778075023846</v>
+        <v>6.268295291109465</v>
       </c>
       <c r="M23">
-        <v>18.71204100002896</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.24669726942615</v>
+        <v>8.137563325661036</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.90012943404819</v>
+      </c>
+      <c r="P23">
+        <v>12.13728144332573</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.7384344156369</v>
+        <v>24.50872172133662</v>
       </c>
       <c r="C24">
-        <v>18.68440605731314</v>
+        <v>15.26732764399152</v>
       </c>
       <c r="D24">
-        <v>3.529350269041094</v>
+        <v>4.163210684501863</v>
       </c>
       <c r="E24">
-        <v>6.106437545594223</v>
+        <v>7.490657509770424</v>
       </c>
       <c r="F24">
-        <v>49.51111562616604</v>
+        <v>30.26228094492865</v>
       </c>
       <c r="G24">
-        <v>2.101564135467329</v>
+        <v>40.9726011761397</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.712468592742804</v>
       </c>
       <c r="J24">
-        <v>5.749738982529959</v>
+        <v>12.50486842829448</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.76300414174645</v>
       </c>
       <c r="L24">
-        <v>6.995653284772139</v>
+        <v>6.170352444806979</v>
       </c>
       <c r="M24">
-        <v>17.70225078632843</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>15.56342333502668</v>
+        <v>7.823809346712542</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.98533132333616</v>
+      </c>
+      <c r="P24">
+        <v>12.44750333265373</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.00235410819202</v>
+        <v>22.28973284569433</v>
       </c>
       <c r="C25">
-        <v>16.73087476930291</v>
+        <v>13.87279332023195</v>
       </c>
       <c r="D25">
-        <v>3.154141906402148</v>
+        <v>4.029259404382538</v>
       </c>
       <c r="E25">
-        <v>5.962494971291647</v>
+        <v>7.28147123455373</v>
       </c>
       <c r="F25">
-        <v>46.91522170437567</v>
+        <v>28.95746599997895</v>
       </c>
       <c r="G25">
-        <v>2.125503709714831</v>
+        <v>38.65228388676463</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.218138833869849</v>
       </c>
       <c r="J25">
-        <v>5.811520183806334</v>
+        <v>12.2253374951633</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.50955201688142</v>
       </c>
       <c r="L25">
-        <v>6.854011799760223</v>
+        <v>6.061189736455801</v>
       </c>
       <c r="M25">
-        <v>16.62094407392539</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.92594782201552</v>
+        <v>7.472659371940146</v>
       </c>
       <c r="O25">
+        <v>13.94340787090393</v>
+      </c>
+      <c r="P25">
+        <v>12.78744765241266</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.51920874312732</v>
+        <v>19.91728667127031</v>
       </c>
       <c r="C2">
-        <v>12.7570016897404</v>
+        <v>13.19636584860412</v>
       </c>
       <c r="D2">
-        <v>3.929036804421928</v>
+        <v>4.059710260524362</v>
       </c>
       <c r="E2">
-        <v>7.12268736188912</v>
+        <v>7.113217559089026</v>
       </c>
       <c r="F2">
-        <v>28.02053607145247</v>
+        <v>26.81435710519307</v>
       </c>
       <c r="G2">
-        <v>36.95532572936933</v>
+        <v>34.49748172403307</v>
       </c>
       <c r="H2">
-        <v>2.606458640322451</v>
+        <v>2.499626666440571</v>
       </c>
       <c r="J2">
-        <v>12.03924323827249</v>
+        <v>11.87749963519484</v>
       </c>
       <c r="K2">
-        <v>18.36023968957748</v>
+        <v>17.30123778819305</v>
       </c>
       <c r="L2">
-        <v>5.977400947465384</v>
+        <v>14.24489944617608</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.44111206114812</v>
       </c>
       <c r="N2">
-        <v>7.204096299222017</v>
+        <v>5.940856507130841</v>
       </c>
       <c r="O2">
-        <v>13.13202729732102</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.04329560147127</v>
+        <v>7.434816075884906</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.98452108310952</v>
+      </c>
+      <c r="R2">
+        <v>12.89499913137137</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.23483382071073</v>
+        <v>18.68408889329149</v>
       </c>
       <c r="C3">
-        <v>11.9446912962906</v>
+        <v>12.3058698477578</v>
       </c>
       <c r="D3">
-        <v>3.86002257336511</v>
+        <v>3.997681059318384</v>
       </c>
       <c r="E3">
-        <v>7.011700156515042</v>
+        <v>7.019477266549604</v>
       </c>
       <c r="F3">
-        <v>27.40247105978834</v>
+        <v>26.28307488390935</v>
       </c>
       <c r="G3">
-        <v>35.81755889827693</v>
+        <v>33.55832436524675</v>
       </c>
       <c r="H3">
-        <v>2.880283232706449</v>
+        <v>2.745218872613879</v>
       </c>
       <c r="J3">
-        <v>11.92503808564169</v>
+        <v>11.7443134356789</v>
       </c>
       <c r="K3">
-        <v>18.28076063072904</v>
+        <v>17.27734372418151</v>
       </c>
       <c r="L3">
-        <v>5.918310284736517</v>
+        <v>14.31733907347807</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.33709711483073</v>
       </c>
       <c r="N3">
-        <v>7.016415963195207</v>
+        <v>5.884994932580789</v>
       </c>
       <c r="O3">
-        <v>12.55680781659573</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.22059656658346</v>
+        <v>7.247984582944521</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.41630274521846</v>
+      </c>
+      <c r="R3">
+        <v>13.04696090279193</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.40509732547375</v>
+        <v>17.88518018631913</v>
       </c>
       <c r="C4">
-        <v>11.41811477637006</v>
+        <v>11.72767809369396</v>
       </c>
       <c r="D4">
-        <v>3.817085593058818</v>
+        <v>3.959377372482962</v>
       </c>
       <c r="E4">
-        <v>6.941762937271625</v>
+        <v>6.960403605146485</v>
       </c>
       <c r="F4">
-        <v>27.03203169394902</v>
+        <v>25.96388588917403</v>
       </c>
       <c r="G4">
-        <v>35.12695948592947</v>
+        <v>32.99318862175183</v>
       </c>
       <c r="H4">
-        <v>3.053878138687769</v>
+        <v>2.901069567899882</v>
       </c>
       <c r="J4">
-        <v>11.86064599921007</v>
+        <v>11.66442164554194</v>
       </c>
       <c r="K4">
-        <v>18.24213537089441</v>
+        <v>17.2703503575144</v>
       </c>
       <c r="L4">
-        <v>5.880836674418849</v>
+        <v>14.36266430263918</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.29828770974048</v>
       </c>
       <c r="N4">
-        <v>6.898605504607408</v>
+        <v>5.849595698768666</v>
       </c>
       <c r="O4">
-        <v>12.19208570624922</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.33152712352171</v>
+        <v>7.131167506119472</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.05525393085087</v>
+      </c>
+      <c r="R4">
+        <v>13.14263264765474</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.05675310851132</v>
+        <v>17.54920363403009</v>
       </c>
       <c r="C5">
-        <v>11.19652791599458</v>
+        <v>11.48413909115604</v>
       </c>
       <c r="D5">
-        <v>3.799444750101252</v>
+        <v>3.94371608530581</v>
       </c>
       <c r="E5">
-        <v>6.912795438077534</v>
+        <v>6.935935266310493</v>
       </c>
       <c r="F5">
-        <v>26.88346145888729</v>
+        <v>25.8356529502729</v>
       </c>
       <c r="G5">
-        <v>34.84785710888881</v>
+        <v>32.76597273884242</v>
       </c>
       <c r="H5">
-        <v>3.126022848876857</v>
+        <v>2.965874571333467</v>
       </c>
       <c r="J5">
-        <v>11.83582353840685</v>
+        <v>11.63234360820674</v>
       </c>
       <c r="K5">
-        <v>18.22887339917974</v>
+        <v>17.26935998698693</v>
       </c>
       <c r="L5">
-        <v>5.865258715127357</v>
+        <v>14.38134244022332</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.28872865647098</v>
       </c>
       <c r="N5">
-        <v>6.84998700119053</v>
+        <v>5.83488771442168</v>
       </c>
       <c r="O5">
-        <v>12.04072944049677</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.37727106628211</v>
+        <v>7.083079191615147</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.90523060336534</v>
+      </c>
+      <c r="R5">
+        <v>13.18222474821732</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99829791210069</v>
+        <v>17.49278875205316</v>
       </c>
       <c r="C6">
-        <v>11.1593105925403</v>
+        <v>11.44322079153054</v>
       </c>
       <c r="D6">
-        <v>3.79650676782117</v>
+        <v>3.941112466641122</v>
       </c>
       <c r="E6">
-        <v>6.907956681910181</v>
+        <v>6.931848044028046</v>
       </c>
       <c r="F6">
-        <v>26.85893878080222</v>
+        <v>25.81447314047864</v>
       </c>
       <c r="G6">
-        <v>34.80166196603858</v>
+        <v>32.72843523279809</v>
       </c>
       <c r="H6">
-        <v>3.138088009999267</v>
+        <v>2.976714243978928</v>
       </c>
       <c r="J6">
-        <v>11.83178670072624</v>
+        <v>11.62704609449982</v>
       </c>
       <c r="K6">
-        <v>18.22681854729256</v>
+        <v>17.26930577374998</v>
       </c>
       <c r="L6">
-        <v>5.862653242886861</v>
+        <v>14.38445633131739</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.28751715324188</v>
       </c>
       <c r="N6">
-        <v>6.841878257653905</v>
+        <v>5.832428234773738</v>
       </c>
       <c r="O6">
-        <v>12.0154375265041</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.38489989994214</v>
+        <v>7.075066249888232</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.88014990727274</v>
+      </c>
+      <c r="R6">
+        <v>13.18883582190332</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.4004406235532</v>
+        <v>17.8722107506992</v>
       </c>
       <c r="C7">
-        <v>11.41515473609035</v>
+        <v>11.71023887344501</v>
       </c>
       <c r="D7">
-        <v>3.816848266852218</v>
+        <v>3.961769168543816</v>
       </c>
       <c r="E7">
-        <v>6.941374186600685</v>
+        <v>6.960013927777233</v>
       </c>
       <c r="F7">
-        <v>27.03001821706076</v>
+        <v>25.94239990339318</v>
       </c>
       <c r="G7">
-        <v>35.1231855896141</v>
+        <v>33.06699365652851</v>
       </c>
       <c r="H7">
-        <v>3.054845387684203</v>
+        <v>2.902825116936001</v>
       </c>
       <c r="J7">
-        <v>11.86030552626242</v>
+        <v>11.61339566086879</v>
       </c>
       <c r="K7">
-        <v>18.24194658894841</v>
+        <v>17.26045067984725</v>
       </c>
       <c r="L7">
-        <v>5.880627837945495</v>
+        <v>14.35426142760082</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.29178952479291</v>
       </c>
       <c r="N7">
-        <v>6.897952235848098</v>
+        <v>5.849064942678889</v>
       </c>
       <c r="O7">
-        <v>12.19005526745301</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.33214183594322</v>
+        <v>7.129705072417729</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.04965637734925</v>
+      </c>
+      <c r="R7">
+        <v>13.14324749899547</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.08495264762744</v>
+        <v>19.47467619358818</v>
       </c>
       <c r="C8">
-        <v>12.48268189865636</v>
+        <v>12.85231662719647</v>
       </c>
       <c r="D8">
-        <v>3.905355671727231</v>
+        <v>4.046989077248647</v>
       </c>
       <c r="E8">
-        <v>7.084779953571857</v>
+        <v>7.08106627170946</v>
       </c>
       <c r="F8">
-        <v>27.80561451088772</v>
+        <v>26.56589980004757</v>
       </c>
       <c r="G8">
-        <v>36.56154802965003</v>
+        <v>34.41914810353708</v>
       </c>
       <c r="H8">
-        <v>2.699756881232085</v>
+        <v>2.586034027682304</v>
       </c>
       <c r="J8">
-        <v>11.99866274181299</v>
+        <v>11.66648539229563</v>
       </c>
       <c r="K8">
-        <v>18.33067551161998</v>
+        <v>17.25894111361094</v>
       </c>
       <c r="L8">
-        <v>5.957269192072692</v>
+        <v>14.24291989158918</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.37725384428125</v>
       </c>
       <c r="N8">
-        <v>7.139939893653501</v>
+        <v>5.920779192557053</v>
       </c>
       <c r="O8">
-        <v>12.93618097715565</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.10401171715639</v>
+        <v>7.368252796007623</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.77987924864201</v>
+      </c>
+      <c r="R8">
+        <v>12.94767889248481</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.05848718475919</v>
+        <v>22.31519044767198</v>
       </c>
       <c r="C9">
-        <v>14.3562742722861</v>
+        <v>14.89587043347991</v>
       </c>
       <c r="D9">
-        <v>4.074613529971268</v>
+        <v>4.202639909973901</v>
       </c>
       <c r="E9">
-        <v>7.352618402685835</v>
+        <v>7.307247869035092</v>
       </c>
       <c r="F9">
-        <v>29.39355918476094</v>
+        <v>27.91393998586912</v>
       </c>
       <c r="G9">
-        <v>39.43272021092292</v>
+        <v>36.8678447898108</v>
       </c>
       <c r="H9">
-        <v>2.045412124559388</v>
+        <v>2.000615485428911</v>
       </c>
       <c r="J9">
-        <v>12.31638583567436</v>
+        <v>11.96924055418727</v>
       </c>
       <c r="K9">
-        <v>18.58893009577059</v>
+        <v>17.35620136776647</v>
       </c>
       <c r="L9">
-        <v>6.098466706137958</v>
+        <v>14.06314303992883</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.76712854034637</v>
       </c>
       <c r="N9">
-        <v>7.592568713207237</v>
+        <v>6.054172275359149</v>
       </c>
       <c r="O9">
-        <v>14.30150124197884</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.6721373704321</v>
+        <v>7.820584044503375</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.12254626367818</v>
+      </c>
+      <c r="R9">
+        <v>12.5822555773341</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.00780260956583</v>
+        <v>24.17113957199852</v>
       </c>
       <c r="C10">
-        <v>15.6057616552552</v>
+        <v>16.18377874801238</v>
       </c>
       <c r="D10">
-        <v>4.185886075269315</v>
+        <v>4.317665159499393</v>
       </c>
       <c r="E10">
-        <v>7.532303661116798</v>
+        <v>7.458820049509011</v>
       </c>
       <c r="F10">
-        <v>30.42789953417513</v>
+        <v>28.67765157593054</v>
       </c>
       <c r="G10">
-        <v>41.30995209815315</v>
+        <v>38.87399664960141</v>
       </c>
       <c r="H10">
-        <v>1.62225822750403</v>
+        <v>1.629625411812242</v>
       </c>
       <c r="J10">
-        <v>12.52944837606304</v>
+        <v>11.88477877277408</v>
       </c>
       <c r="K10">
-        <v>18.74257367308184</v>
+        <v>17.33803986219062</v>
       </c>
       <c r="L10">
-        <v>6.198200576659799</v>
+        <v>13.8389675561595</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.06522570660555</v>
       </c>
       <c r="N10">
-        <v>7.844707201562305</v>
+        <v>6.149370753630145</v>
       </c>
       <c r="O10">
-        <v>15.16667124732238</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.36481094785923</v>
+        <v>8.06794213769672</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.9527798775197</v>
+      </c>
+      <c r="R10">
+        <v>12.33406679299999</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.41351944644438</v>
+        <v>24.51058077206046</v>
       </c>
       <c r="C11">
-        <v>16.19090212058392</v>
+        <v>16.6180114850556</v>
       </c>
       <c r="D11">
-        <v>4.147100072944622</v>
+        <v>4.283504695526387</v>
       </c>
       <c r="E11">
-        <v>7.594172253803552</v>
+        <v>7.513649333261498</v>
       </c>
       <c r="F11">
-        <v>29.4577782656131</v>
+        <v>27.54241782089439</v>
       </c>
       <c r="G11">
-        <v>40.02549191371921</v>
+        <v>38.5276368949721</v>
       </c>
       <c r="H11">
-        <v>2.652834733256942</v>
+        <v>2.669215974791576</v>
       </c>
       <c r="J11">
-        <v>12.19874693644601</v>
+        <v>11.03455426156641</v>
       </c>
       <c r="K11">
-        <v>18.02524163353945</v>
+        <v>16.57367881139346</v>
       </c>
       <c r="L11">
-        <v>6.288443532744246</v>
+        <v>13.19660523628746</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.59713388520213</v>
       </c>
       <c r="N11">
-        <v>7.406081175105562</v>
+        <v>6.254943017944539</v>
       </c>
       <c r="O11">
-        <v>14.92837114149069</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.26246746885648</v>
+        <v>7.601241518846846</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.68351318118179</v>
+      </c>
+      <c r="R11">
+        <v>12.30788118220292</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.3396211797554</v>
+        <v>24.43510417358646</v>
       </c>
       <c r="C12">
-        <v>16.43129350413992</v>
+        <v>16.76043287982004</v>
       </c>
       <c r="D12">
-        <v>4.095545776691857</v>
+        <v>4.222779843675926</v>
       </c>
       <c r="E12">
-        <v>7.700550196094122</v>
+        <v>7.614291678755166</v>
       </c>
       <c r="F12">
-        <v>28.39455390824443</v>
+        <v>26.46473225868636</v>
       </c>
       <c r="G12">
-        <v>38.5079665210693</v>
+        <v>37.53653207067484</v>
       </c>
       <c r="H12">
-        <v>4.073566665638173</v>
+        <v>4.085987637999972</v>
       </c>
       <c r="J12">
-        <v>11.86519492556062</v>
+        <v>10.51301942375023</v>
       </c>
       <c r="K12">
-        <v>17.37611814894708</v>
+        <v>15.96246965031997</v>
       </c>
       <c r="L12">
-        <v>6.392171201393994</v>
+        <v>12.73655393470505</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.14864184063835</v>
       </c>
       <c r="N12">
-        <v>6.999743405560727</v>
+        <v>6.371313145366797</v>
       </c>
       <c r="O12">
-        <v>14.5383997100162</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.26461955491322</v>
+        <v>7.173719383171371</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.28591877741749</v>
+      </c>
+      <c r="R12">
+        <v>12.3596347742221</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.88993364549022</v>
+        <v>24.05032685790552</v>
       </c>
       <c r="C13">
-        <v>16.42855574614363</v>
+        <v>16.71904235846888</v>
       </c>
       <c r="D13">
-        <v>4.030319589782302</v>
+        <v>4.134752670388153</v>
       </c>
       <c r="E13">
-        <v>7.84104640406858</v>
+        <v>7.758347422933462</v>
       </c>
       <c r="F13">
-        <v>27.17621519217871</v>
+        <v>25.39097020966002</v>
       </c>
       <c r="G13">
-        <v>36.67938555765025</v>
+        <v>35.78101652424196</v>
       </c>
       <c r="H13">
-        <v>5.525048575673813</v>
+        <v>5.531773151000901</v>
       </c>
       <c r="J13">
-        <v>11.505886716123</v>
+        <v>10.29206384176043</v>
       </c>
       <c r="K13">
-        <v>16.73809397889573</v>
+        <v>15.45006119005252</v>
       </c>
       <c r="L13">
-        <v>6.508140820451365</v>
+        <v>12.39029018251576</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.7069335301703</v>
       </c>
       <c r="N13">
-        <v>6.593546558666915</v>
+        <v>6.499474296734317</v>
       </c>
       <c r="O13">
-        <v>13.99884540451268</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.34219951867709</v>
+        <v>6.751854076268407</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.7634006823917</v>
+      </c>
+      <c r="R13">
+        <v>12.459058219265</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.39852203034479</v>
+        <v>23.63464192436686</v>
       </c>
       <c r="C14">
-        <v>16.31699704286485</v>
+        <v>16.60568791739908</v>
       </c>
       <c r="D14">
-        <v>3.979118054444369</v>
+        <v>4.064113850839741</v>
       </c>
       <c r="E14">
-        <v>7.963051382072027</v>
+        <v>7.890143258743283</v>
       </c>
       <c r="F14">
-        <v>26.24776940742903</v>
+        <v>24.63265664438841</v>
       </c>
       <c r="G14">
-        <v>35.24303138323111</v>
+        <v>34.19963065135886</v>
       </c>
       <c r="H14">
-        <v>6.549698458571729</v>
+        <v>6.552280057974405</v>
       </c>
       <c r="J14">
-        <v>11.24280843701935</v>
+        <v>10.25775082413593</v>
       </c>
       <c r="K14">
-        <v>16.30001768433418</v>
+        <v>15.13517492495629</v>
       </c>
       <c r="L14">
-        <v>6.598678523575184</v>
+        <v>12.19409778954293</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.40337382916201</v>
       </c>
       <c r="N14">
-        <v>6.314762406862511</v>
+        <v>6.598172264613268</v>
       </c>
       <c r="O14">
-        <v>13.5475604582221</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.4309443862565</v>
+        <v>6.464421822287711</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.3347131118075</v>
+      </c>
+      <c r="R14">
+        <v>12.54771627712455</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.19661038198807</v>
+        <v>23.46440143914635</v>
       </c>
       <c r="C15">
-        <v>16.23735027279336</v>
+        <v>16.53637219989314</v>
       </c>
       <c r="D15">
-        <v>3.963115127709539</v>
+        <v>4.042235757776826</v>
       </c>
       <c r="E15">
-        <v>7.987728480894092</v>
+        <v>7.920693687640775</v>
       </c>
       <c r="F15">
-        <v>25.99147416562109</v>
+        <v>24.44688516884666</v>
       </c>
       <c r="G15">
-        <v>34.82900117541497</v>
+        <v>33.66744084114135</v>
       </c>
       <c r="H15">
-        <v>6.789042447789305</v>
+        <v>6.790042093459254</v>
       </c>
       <c r="J15">
-        <v>11.17470311337853</v>
+        <v>10.30083895212135</v>
       </c>
       <c r="K15">
-        <v>16.19814642855765</v>
+        <v>15.07774907378441</v>
       </c>
       <c r="L15">
-        <v>6.616756181746121</v>
+        <v>12.16585893178777</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.33252906595421</v>
       </c>
       <c r="N15">
-        <v>6.244906116795661</v>
+        <v>6.618442897259706</v>
       </c>
       <c r="O15">
-        <v>13.40568080413634</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.464695607706</v>
+        <v>6.393648370956383</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.20288231807113</v>
+      </c>
+      <c r="R15">
+        <v>12.57518827056446</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.42360032106295</v>
+        <v>22.80399885488796</v>
       </c>
       <c r="C16">
-        <v>15.72842625133013</v>
+        <v>16.11408522973967</v>
       </c>
       <c r="D16">
-        <v>3.927114651173194</v>
+        <v>3.99689699415744</v>
       </c>
       <c r="E16">
-        <v>7.877998070787866</v>
+        <v>7.838952808697779</v>
       </c>
       <c r="F16">
-        <v>25.75379789137065</v>
+        <v>24.45161731750527</v>
       </c>
       <c r="G16">
-        <v>34.30428246117185</v>
+        <v>32.47015878997741</v>
       </c>
       <c r="H16">
-        <v>6.60278741980204</v>
+        <v>6.596173746323999</v>
       </c>
       <c r="J16">
-        <v>11.14915312752295</v>
+        <v>10.74345672844691</v>
       </c>
       <c r="K16">
-        <v>16.25745852721092</v>
+        <v>15.25813976581482</v>
       </c>
       <c r="L16">
-        <v>6.546313787919206</v>
+        <v>12.35224431137557</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.36217748521891</v>
       </c>
       <c r="N16">
-        <v>6.21214139925685</v>
+        <v>6.55048308897331</v>
       </c>
       <c r="O16">
-        <v>13.12495803609861</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.5669501876006</v>
+        <v>6.372272876831738</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.95995668954032</v>
+      </c>
+      <c r="R16">
+        <v>12.62663384925033</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.1127537861266</v>
+        <v>22.50868666933715</v>
       </c>
       <c r="C17">
-        <v>15.39145949132069</v>
+        <v>15.82842525377413</v>
       </c>
       <c r="D17">
-        <v>3.926598152024654</v>
+        <v>3.999553905561377</v>
       </c>
       <c r="E17">
-        <v>7.721036246740955</v>
+        <v>7.692472272625054</v>
       </c>
       <c r="F17">
-        <v>26.07787481014529</v>
+        <v>24.84505344608042</v>
       </c>
       <c r="G17">
-        <v>34.69364291985369</v>
+        <v>32.52527031552314</v>
       </c>
       <c r="H17">
-        <v>5.889166963335002</v>
+        <v>5.877046314500004</v>
       </c>
       <c r="J17">
-        <v>11.27171071601935</v>
+        <v>11.05097027729677</v>
       </c>
       <c r="K17">
-        <v>16.53627356677743</v>
+        <v>15.55442105155762</v>
       </c>
       <c r="L17">
-        <v>6.440552211030916</v>
+        <v>12.60048088079753</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.5354477525752</v>
       </c>
       <c r="N17">
-        <v>6.333199171793257</v>
+        <v>6.441676895346402</v>
       </c>
       <c r="O17">
-        <v>13.15644748824487</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.59984928786176</v>
+        <v>6.505891009614857</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.0039482376235</v>
+      </c>
+      <c r="R17">
+        <v>12.62701530067881</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.15023519940605</v>
+        <v>22.51867887658256</v>
       </c>
       <c r="C18">
-        <v>15.17121059700069</v>
+        <v>15.65782362927878</v>
       </c>
       <c r="D18">
-        <v>3.959350713878867</v>
+        <v>4.041857649841486</v>
       </c>
       <c r="E18">
-        <v>7.545700505405363</v>
+        <v>7.515857241584049</v>
       </c>
       <c r="F18">
-        <v>26.91303098567484</v>
+        <v>25.648908575598</v>
       </c>
       <c r="G18">
-        <v>35.89958942649265</v>
+        <v>33.4975616484885</v>
       </c>
       <c r="H18">
-        <v>4.668355307441155</v>
+        <v>4.651480085613972</v>
       </c>
       <c r="J18">
-        <v>11.53204671248889</v>
+        <v>11.36473137698289</v>
       </c>
       <c r="K18">
-        <v>17.0338376394789</v>
+        <v>16.00402704588226</v>
       </c>
       <c r="L18">
-        <v>6.313246127686312</v>
+        <v>12.94950178003255</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.85900313425379</v>
       </c>
       <c r="N18">
-        <v>6.617227399648605</v>
+        <v>6.305957793661503</v>
       </c>
       <c r="O18">
-        <v>13.46018794533474</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.58710106947581</v>
+        <v>6.805608188467824</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.30653393769668</v>
+      </c>
+      <c r="R18">
+        <v>12.58763109144872</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.45769495040177</v>
+        <v>22.77869700197235</v>
       </c>
       <c r="C19">
-        <v>15.06501036312343</v>
+        <v>15.60550385942307</v>
       </c>
       <c r="D19">
-        <v>4.020465116393527</v>
+        <v>4.11606765647651</v>
       </c>
       <c r="E19">
-        <v>7.431609597790187</v>
+        <v>7.391978980973882</v>
       </c>
       <c r="F19">
-        <v>28.08759157089532</v>
+        <v>26.73027044913801</v>
       </c>
       <c r="G19">
-        <v>37.64957619548701</v>
+        <v>35.04985377896074</v>
       </c>
       <c r="H19">
-        <v>3.232067775899077</v>
+        <v>3.21107442518943</v>
       </c>
       <c r="J19">
-        <v>11.8821441280721</v>
+        <v>11.69738590842865</v>
       </c>
       <c r="K19">
-        <v>17.67506580859458</v>
+        <v>16.55582979353956</v>
       </c>
       <c r="L19">
-        <v>6.20989094409406</v>
+        <v>13.36363462380236</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.28602904661517</v>
       </c>
       <c r="N19">
-        <v>7.03233698637586</v>
+        <v>6.189248083360501</v>
       </c>
       <c r="O19">
-        <v>13.95348515489941</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.55206199690227</v>
+        <v>7.237825093761238</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.79055701993913</v>
+      </c>
+      <c r="R19">
+        <v>12.52775422647004</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.49073127487266</v>
+        <v>23.71454755168352</v>
       </c>
       <c r="C20">
-        <v>15.28680134873033</v>
+        <v>15.89408690251581</v>
       </c>
       <c r="D20">
-        <v>4.15629890224518</v>
+        <v>4.277882029756761</v>
       </c>
       <c r="E20">
-        <v>7.484880259695633</v>
+        <v>7.418965287243686</v>
       </c>
       <c r="F20">
-        <v>30.14630453129435</v>
+        <v>28.53171413905569</v>
       </c>
       <c r="G20">
-        <v>40.80432831092271</v>
+        <v>38.09176089683729</v>
       </c>
       <c r="H20">
-        <v>1.730834120723412</v>
+        <v>1.722057932656133</v>
       </c>
       <c r="J20">
-        <v>12.46924657814981</v>
+        <v>12.07213969794998</v>
       </c>
       <c r="K20">
-        <v>18.69421943751323</v>
+        <v>17.37016385788971</v>
       </c>
       <c r="L20">
-        <v>6.172238946946287</v>
+        <v>13.91895066253054</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.00428190663512</v>
       </c>
       <c r="N20">
-        <v>7.776440802607222</v>
+        <v>6.125660577691916</v>
       </c>
       <c r="O20">
-        <v>14.94058430788016</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.44490333349349</v>
+        <v>8.003284486791253</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.74680736191197</v>
+      </c>
+      <c r="R20">
+        <v>12.39630281303759</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.0546170439194</v>
+        <v>25.03698157116565</v>
       </c>
       <c r="C21">
-        <v>16.19628318977865</v>
+        <v>16.64222226665795</v>
       </c>
       <c r="D21">
-        <v>4.257733167277033</v>
+        <v>4.435884274293057</v>
       </c>
       <c r="E21">
-        <v>7.636904442074472</v>
+        <v>7.548816780867697</v>
       </c>
       <c r="F21">
-        <v>31.20821705541439</v>
+        <v>29.02905381374955</v>
       </c>
       <c r="G21">
-        <v>42.63030270412357</v>
+        <v>41.24883091590028</v>
       </c>
       <c r="H21">
-        <v>1.753560339376192</v>
+        <v>1.709161220292361</v>
       </c>
       <c r="J21">
-        <v>12.71952101260301</v>
+        <v>11.21822493439362</v>
       </c>
       <c r="K21">
-        <v>18.97384029136776</v>
+        <v>17.31239223180939</v>
       </c>
       <c r="L21">
-        <v>6.245919632583441</v>
+        <v>13.7107383170412</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.2182047152017</v>
       </c>
       <c r="N21">
-        <v>8.066098459615928</v>
+        <v>6.187387529725672</v>
       </c>
       <c r="O21">
-        <v>15.69300482756021</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.20853324251806</v>
+        <v>8.279898970818273</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.41364307325165</v>
+      </c>
+      <c r="R21">
+        <v>12.21258407665313</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.0084395815402</v>
+        <v>25.83280633647285</v>
       </c>
       <c r="C22">
-        <v>16.77007590703299</v>
+        <v>17.09854674421126</v>
       </c>
       <c r="D22">
-        <v>4.318216314833611</v>
+        <v>4.538578737396823</v>
       </c>
       <c r="E22">
-        <v>7.730091353151805</v>
+        <v>7.63048869701774</v>
       </c>
       <c r="F22">
-        <v>31.82130009612171</v>
+        <v>29.25889141964165</v>
       </c>
       <c r="G22">
-        <v>43.69567450424549</v>
+        <v>43.27435310002402</v>
       </c>
       <c r="H22">
-        <v>1.969420098164652</v>
+        <v>1.891187022474552</v>
       </c>
       <c r="J22">
-        <v>12.86326880519274</v>
+        <v>10.60770112921807</v>
       </c>
       <c r="K22">
-        <v>19.1210495014928</v>
+        <v>17.22878935802852</v>
       </c>
       <c r="L22">
-        <v>6.293771699510456</v>
+        <v>13.54062109902081</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.33072831229616</v>
       </c>
       <c r="N22">
-        <v>8.21873562052498</v>
+        <v>6.228873589016171</v>
       </c>
       <c r="O22">
-        <v>16.13454366683309</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.05590656900445</v>
+        <v>8.422425813313156</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.7967931168138</v>
+      </c>
+      <c r="R22">
+        <v>12.1011375537882</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.50312471110552</v>
+        <v>25.42789338978929</v>
       </c>
       <c r="C23">
-        <v>16.4659485347556</v>
+        <v>16.883777151503</v>
       </c>
       <c r="D23">
-        <v>4.285959187801161</v>
+        <v>4.476234688459027</v>
       </c>
       <c r="E23">
-        <v>7.680424107941963</v>
+        <v>7.586308252254334</v>
       </c>
       <c r="F23">
-        <v>31.49367878629833</v>
+        <v>29.1819817447219</v>
       </c>
       <c r="G23">
-        <v>43.12717386747061</v>
+        <v>42.01809136603163</v>
       </c>
       <c r="H23">
-        <v>1.854520763629094</v>
+        <v>1.795858537367201</v>
       </c>
       <c r="J23">
-        <v>12.78602517029832</v>
+        <v>11.04493330600826</v>
       </c>
       <c r="K23">
-        <v>19.04140286426501</v>
+        <v>17.29788762910648</v>
       </c>
       <c r="L23">
-        <v>6.268295291109465</v>
+        <v>13.64855375137462</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.28991498629531</v>
       </c>
       <c r="N23">
-        <v>8.137563325661036</v>
+        <v>6.207341186486852</v>
       </c>
       <c r="O23">
-        <v>15.90012943404819</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.13728144332573</v>
+        <v>8.348425022791936</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.60122153057303</v>
+      </c>
+      <c r="R23">
+        <v>12.15824846364395</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.50872172133662</v>
+        <v>23.7290229477919</v>
       </c>
       <c r="C24">
-        <v>15.26732764399152</v>
+        <v>15.88096860966851</v>
       </c>
       <c r="D24">
-        <v>4.163210684501863</v>
+        <v>4.286042078895924</v>
       </c>
       <c r="E24">
-        <v>7.490657509770424</v>
+        <v>7.423757195489936</v>
       </c>
       <c r="F24">
-        <v>30.26228094492865</v>
+        <v>28.641606621982</v>
       </c>
       <c r="G24">
-        <v>40.9726011761397</v>
+        <v>38.23141792055414</v>
       </c>
       <c r="H24">
-        <v>1.712468592742804</v>
+        <v>1.703821246319812</v>
       </c>
       <c r="J24">
-        <v>12.50486842829448</v>
+        <v>12.11276389074126</v>
       </c>
       <c r="K24">
-        <v>18.76300414174645</v>
+        <v>17.43153302968689</v>
       </c>
       <c r="L24">
-        <v>6.170352444806979</v>
+        <v>13.96689427086824</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.04901313641324</v>
       </c>
       <c r="N24">
-        <v>7.823809346712542</v>
+        <v>6.121956786911717</v>
       </c>
       <c r="O24">
-        <v>14.98533132333616</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.44750333265373</v>
+        <v>8.052449864974822</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.79110635295354</v>
+      </c>
+      <c r="R24">
+        <v>12.39488202508559</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.28973284569433</v>
+        <v>21.59280699906866</v>
       </c>
       <c r="C25">
-        <v>13.87279332023195</v>
+        <v>14.38633733217691</v>
       </c>
       <c r="D25">
-        <v>4.029259404382538</v>
+        <v>4.157079987197761</v>
       </c>
       <c r="E25">
-        <v>7.28147123455373</v>
+        <v>7.247207549133977</v>
       </c>
       <c r="F25">
-        <v>28.95746599997895</v>
+        <v>27.57038435267515</v>
       </c>
       <c r="G25">
-        <v>38.65228388676463</v>
+        <v>36.09652236964756</v>
       </c>
       <c r="H25">
-        <v>2.218138833869849</v>
+        <v>2.153868755029659</v>
       </c>
       <c r="J25">
-        <v>12.2253374951633</v>
+        <v>11.95459054792889</v>
       </c>
       <c r="K25">
-        <v>18.50955201688142</v>
+        <v>17.33626005085433</v>
       </c>
       <c r="L25">
-        <v>6.061189736455801</v>
+        <v>14.12158526905531</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.65089923621371</v>
       </c>
       <c r="N25">
-        <v>7.472659371940146</v>
+        <v>6.01936359670685</v>
       </c>
       <c r="O25">
-        <v>13.94340787090393</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.78744765241266</v>
+        <v>7.701489059788194</v>
       </c>
       <c r="Q25">
+        <v>13.77560511970365</v>
+      </c>
+      <c r="R25">
+        <v>12.6786411438485</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
